--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\Desktop\eps-us develop DACD\InputData\geoeng\DACD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_Revision\geoeng\DACD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605FE606-12AA-4849-AA14-996BF70D6925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="10875"/>
+    <workbookView xWindow="690" yWindow="1350" windowWidth="34910" windowHeight="19590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,26 @@
     <sheet name="DACD-energyintensity" sheetId="5" r:id="rId4"/>
     <sheet name="DACD-capex" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Sources:</t>
   </si>
@@ -75,24 +85,6 @@
     <t>Electricity, Heat, and CapEx Data</t>
   </si>
   <si>
-    <t>Realmonte et al.</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41467-019-10842-5</t>
-  </si>
-  <si>
-    <t>An inter-model assessment of the role of direct air capture in deep mitigation pathways</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>https://static-content.springer.com/esm/art%3A10.1038%2Fs41467-019-10842-5/MediaObjects/41467_2019_10842_MOESM1_ESM.pdf</t>
-  </si>
-  <si>
-    <t>Supplementary materials, Fig 3</t>
-  </si>
-  <si>
     <t>Technology Shares (Supplement Fig 3)</t>
   </si>
   <si>
@@ -210,30 +202,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>This variable makes assumptions that only hold true with a model end date</t>
-  </si>
-  <si>
-    <t>of 2050.  If the EPS model end date is extended significantly beyond 2050</t>
-  </si>
-  <si>
-    <t>(such as to 2100), this variable and the associated structure will need to</t>
-  </si>
-  <si>
-    <t>be revisited.</t>
-  </si>
-  <si>
-    <t>Due to the constraint timeframe and the late start of potential deployment</t>
-  </si>
-  <si>
-    <t>of DAC technology (2046; see "Data" tab), we only use the most mature</t>
-  </si>
-  <si>
-    <t>DAC technology (hydroxide sorbent-based technology), which</t>
-  </si>
-  <si>
-    <t>utilizes natural gas as its heat source.</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -282,28 +250,35 @@
     <t>DACD Direct Air Capture Amortized CapEx and OM</t>
   </si>
   <si>
-    <t>CapEx here should include the cost of equipment, maintenance, and labor.</t>
-  </si>
-  <si>
-    <t>Energy costs are calculated separately in the model and should not be included here.</t>
-  </si>
-  <si>
-    <t>Amortized CapEx and OM Cost Notes</t>
+    <t>N/A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC is not included in any energy pathways in South Korea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Therefore we will scale down the global data following the method used for the US</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDP from WorldBank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -311,7 +286,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -319,7 +294,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -327,15 +302,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,9 +374,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -404,9 +386,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,7 +420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -482,7 +470,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -776,33 +770,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,154 +806,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-  </hyperlinks>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="8" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.25" customWidth="1"/>
+    <col min="2" max="8" width="11.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -966,7 +898,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -977,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +920,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -999,7 +931,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1010,12 +942,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +969,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1048,17 +980,17 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1012,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1091,34 +1023,34 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1128,27 +1060,27 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>2045</v>
       </c>
@@ -1171,9 +1103,9 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1197,9 +1129,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1223,15 +1155,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B61">
         <v>420</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>2045</v>
       </c>
@@ -1254,9 +1186,9 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B64" s="9">
         <f>B58/$B$61*30</f>
@@ -1287,9 +1219,9 @@
         <v>27.071428571428573</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B65" s="9">
         <f>B59/$B$61*30</f>
@@ -1320,66 +1252,69 @@
         <v>2.8571428571428568</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="C72" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72">
-        <v>19.39</v>
-      </c>
-      <c r="C72" t="s">
-        <v>41</v>
       </c>
       <c r="D72">
         <v>2017</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B73">
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D73">
         <v>2017</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B74" s="10">
         <f>B72/B73</f>
-        <v>0.24237500000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1389,7 +1324,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>2045</v>
       </c>
@@ -1412,9 +1347,9 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B78" s="9">
         <f>B64*$B$74</f>
@@ -1422,32 +1357,32 @@
       </c>
       <c r="C78" s="8">
         <f t="shared" ref="C78:H79" si="1">C64*$B$74</f>
-        <v>8.6562499999999987E-2</v>
+        <v>7.2499999999999995E-3</v>
       </c>
       <c r="D78" s="8">
         <f t="shared" si="1"/>
-        <v>0.34624999999999995</v>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="E78" s="8">
         <f t="shared" si="1"/>
-        <v>2.1121250000000003</v>
+        <v>0.17690000000000003</v>
       </c>
       <c r="F78" s="8">
         <f t="shared" si="1"/>
-        <v>6.7172500000000008</v>
+        <v>0.5626000000000001</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="1"/>
-        <v>6.6479999999999997</v>
+        <v>0.55680000000000007</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="1"/>
-        <v>6.5614375000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.54955000000000009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B79" s="9">
         <f>B65*$B$74</f>
@@ -1463,27 +1398,27 @@
       </c>
       <c r="E79" s="8">
         <f t="shared" si="1"/>
-        <v>8.6562499999999987E-2</v>
+        <v>7.2499999999999995E-3</v>
       </c>
       <c r="F79" s="8">
         <f t="shared" si="1"/>
-        <v>0.51937500000000003</v>
+        <v>4.3500000000000004E-2</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="1"/>
-        <v>0.60593750000000002</v>
+        <v>5.0750000000000003E-2</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="1"/>
-        <v>0.69249999999999989</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.7999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>2045</v>
       </c>
@@ -1506,9 +1441,9 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B83" s="12">
         <f>B78*10^9</f>
@@ -1516,32 +1451,32 @@
       </c>
       <c r="C83" s="13">
         <f t="shared" ref="C83:H84" si="2">C78*10^9</f>
-        <v>86562499.999999985</v>
+        <v>7249999.9999999991</v>
       </c>
       <c r="D83" s="13">
         <f t="shared" si="2"/>
-        <v>346249999.99999994</v>
+        <v>28999999.999999996</v>
       </c>
       <c r="E83" s="13">
         <f t="shared" si="2"/>
-        <v>2112125000.0000002</v>
+        <v>176900000.00000003</v>
       </c>
       <c r="F83" s="13">
         <f t="shared" si="2"/>
-        <v>6717250000.000001</v>
+        <v>562600000.00000012</v>
       </c>
       <c r="G83" s="13">
         <f t="shared" si="2"/>
-        <v>6648000000</v>
+        <v>556800000.00000012</v>
       </c>
       <c r="H83" s="13">
         <f t="shared" si="2"/>
-        <v>6561437500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>549550000.00000012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B84" s="12">
         <f>B79*10^9</f>
@@ -1557,60 +1492,61 @@
       </c>
       <c r="E84" s="13">
         <f t="shared" si="2"/>
-        <v>86562499.999999985</v>
+        <v>7249999.9999999991</v>
       </c>
       <c r="F84" s="13">
         <f t="shared" si="2"/>
-        <v>519375000.00000006</v>
+        <v>43500000.000000007</v>
       </c>
       <c r="G84" s="13">
         <f t="shared" si="2"/>
-        <v>605937500</v>
+        <v>50750000</v>
       </c>
       <c r="H84" s="13">
         <f t="shared" si="2"/>
-        <v>692499999.99999988</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57999999.999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B92">
         <v>947086</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1618,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1626,15 +1562,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4">
         <v>2017</v>
@@ -1739,9 +1675,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1833,32 +1769,33 @@
       </c>
       <c r="AE2">
         <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AE$1)</f>
-        <v>17312500</v>
+        <v>1450000</v>
       </c>
       <c r="AF2">
         <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AF$1)</f>
-        <v>34625000</v>
+        <v>2900000</v>
       </c>
       <c r="AG2">
         <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AG$1)</f>
-        <v>51937500</v>
+        <v>4350000</v>
       </c>
       <c r="AH2">
         <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AH$1)</f>
-        <v>69250000</v>
+        <v>5800000</v>
       </c>
       <c r="AI2">
         <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AI$1)</f>
-        <v>86562500</v>
+        <v>7250000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1866,15 +1803,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4">
         <v>2017</v>
@@ -1979,9 +1916,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B2" s="14">
         <f>Data!B16*Data!B92</f>
@@ -2120,9 +2057,9 @@
         <v>1704754.8</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2260,9 +2197,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B4" s="14">
         <f>Data!B22*Data!B92</f>
@@ -2401,9 +2338,9 @@
         <v>7671396.5999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2541,9 +2478,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2681,9 +2618,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2821,9 +2758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2961,9 +2898,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3101,9 +3038,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3241,9 +3178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3382,12 +3319,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3395,15 +3333,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4">
         <v>2017</v>
@@ -3508,9 +3446,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B2" s="14">
         <f>Data!B10</f>
@@ -3650,6 +3588,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>